--- a/xlsx/联合国安全理事会_intext.xlsx
+++ b/xlsx/联合国安全理事会_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="587">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="567">
   <si>
     <t>联合国安全理事会</t>
   </si>
@@ -26,40 +26,40 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%AA%9E</t>
   </si>
   <si>
-    <t>法語</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_联合国安全理事会</t>
+    <t>法语</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_联合国安全理事会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%AA%9E</t>
   </si>
   <si>
-    <t>英語</t>
+    <t>英语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E8%AA%9E</t>
   </si>
   <si>
-    <t>俄語</t>
+    <t>俄语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E8%AA%9E</t>
   </si>
   <si>
-    <t>西班牙語</t>
+    <t>西班牙语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E8%AA%9E</t>
   </si>
   <si>
-    <t>阿拉伯語</t>
+    <t>阿拉伯语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84</t>
   </si>
   <si>
-    <t>紐約</t>
+    <t>纽约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD%E6%80%BB%E9%83%A8</t>
@@ -89,7 +89,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%88%A5%E6%89%80%E6%B5%A9%E9%83%8E</t>
   </si>
   <si>
-    <t>別所浩郎</t>
+    <t>别所浩郎</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD</t>
@@ -107,19 +107,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%B8%E4%BB%BB%E7%90%86%E4%BA%8B%E5%9C%8B</t>
   </si>
   <si>
-    <t>常任理事國</t>
+    <t>常任理事国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%AE%89%E5%85%A8%E7%90%86%E4%BA%8B%E6%9C%83%E5%90%A6%E6%B1%BA%E6%AC%8A</t>
   </si>
   <si>
-    <t>聯合國安全理事會否決權</t>
+    <t>联合国安全理事会否决权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E5%88%B6%E8%A3%81</t>
   </si>
   <si>
-    <t>經濟制裁</t>
+    <t>经济制裁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD%E7%A7%98%E4%B9%A6%E9%95%BF</t>
@@ -143,19 +143,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B</t>
   </si>
   <si>
-    <t>中國</t>
+    <t>中国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B</t>
   </si>
   <si>
-    <t>中華民國</t>
+    <t>中华民国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>中華人民共和國</t>
+    <t>中华人民共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD</t>
@@ -245,13 +245,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%AE%89%E5%85%A8%E7%90%86%E4%BA%8B%E6%9C%83%E5%B8%B8%E4%BB%BB%E7%90%86%E4%BA%8B%E5%9C%8B</t>
   </si>
   <si>
-    <t>聯合國安全理事會常任理事國</t>
+    <t>联合国安全理事会常任理事国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E8%88%87%E8%81%AF%E5%90%88%E5%9C%8B%E9%97%9C%E4%BF%82</t>
   </si>
   <si>
-    <t>中國與聯合國關係</t>
+    <t>中国与联合国关系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD%E5%8C%BA%E5%9F%9F%E9%9B%86%E5%9B%A2</t>
@@ -263,37 +263,28 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD</t>
   </si>
   <si>
-    <t>中华人民共和国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E6%B0%91%E5%9B%BD</t>
   </si>
   <si>
-    <t>中华民国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%A0%85%E5%90%88%E7%9C%BE%E5%9C%8B</t>
   </si>
   <si>
-    <t>美利堅合眾國</t>
+    <t>美利坚合众国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E4%B8%8D%E5%88%97%E9%A1%9B%E5%8F%8A%E5%8C%97%E6%84%9B%E7%88%BE%E8%98%AD%E8%81%AF%E5%90%88%E7%8E%8B%E5%9C%8B</t>
   </si>
   <si>
-    <t>大不列顛及北愛爾蘭聯合王國</t>
+    <t>大不列颠及北爱尔兰联合王国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%98%AD%E8%A5%BF%E5%85%B1%E5%92%8C%E5%9C%8B%E8%87%A8%E6%99%82%E6%94%BF%E5%BA%9C</t>
   </si>
   <si>
-    <t>法蘭西共和國臨時政府</t>
+    <t>法兰西共和国临时政府</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%85%B0%E8%A5%BF%E7%AC%AC%E5%9B%9B%E5%85%B1%E5%92%8C%E5%9B%BD</t>
@@ -305,15 +296,9 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF</t>
   </si>
   <si>
-    <t>俄羅斯</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF%E8%81%AF%E9%82%A6</t>
   </si>
   <si>
-    <t>俄羅斯聯邦</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E7%BB%B4%E5%9F%83%E7%A4%BE%E4%BC%9A%E4%B8%BB%E4%B9%89%E5%85%B1%E5%92%8C%E5%9B%BD%E8%81%94%E7%9B%9F</t>
   </si>
   <si>
@@ -341,7 +326,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF%E7%B8%BD%E7%B5%B1</t>
   </si>
   <si>
-    <t>俄羅斯總統</t>
+    <t>俄罗斯总统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%B2%8D%E9%87%8C%E6%96%AF%C2%B7%E5%8F%B6%E5%88%A9%E9%92%A6</t>
@@ -353,19 +338,16 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E7%A7%98%E6%9B%B8%E9%95%B7</t>
   </si>
   <si>
-    <t>聯合國秘書長</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8D%A8%E7%AB%8B%E5%9C%8B%E5%AE%B6%E8%81%AF%E5%90%88%E9%AB%94</t>
   </si>
   <si>
-    <t>獨立國家聯合體</t>
+    <t>独立国家联合体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E7%88%BE%C2%B7%E6%88%B4%E9%AB%98%E6%A8%82</t>
   </si>
   <si>
-    <t>夏爾·戴高樂</t>
+    <t>夏尔·戴高乐</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%85%B0%E8%A5%BF%E7%AC%AC%E4%BA%94%E5%85%B1%E5%92%8C%E5%9B%BD</t>
@@ -383,9 +365,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B</t>
   </si>
   <si>
-    <t>法國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD%E5%AE%89%E5%85%A8%E7%90%86%E4%BA%8B%E4%BC%9A%E6%88%90%E5%91%98%E5%9B%BD%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
@@ -425,13 +404,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A7%94%E5%85%A7%E7%91%9E%E6%8B%89</t>
   </si>
   <si>
-    <t>委內瑞拉</t>
+    <t>委内瑞拉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%A5%BF%E8%98%AD</t>
   </si>
   <si>
-    <t>新西蘭</t>
+    <t>新西兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99</t>
@@ -461,13 +440,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E5%85%8B%E8%98%AD</t>
   </si>
   <si>
-    <t>烏克蘭</t>
+    <t>乌克兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%A3%E7%B4%A2%E6%AF%94%E4%BA%9E</t>
   </si>
   <si>
-    <t>衣索比亞</t>
+    <t>衣索比亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E8%90%A8%E5%85%8B%E6%96%AF%E5%9D%A6</t>
@@ -479,7 +458,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8E%BB%E5%88%A9%E7%B6%AD%E4%BA%9E</t>
   </si>
   <si>
-    <t>玻利維亞</t>
+    <t>玻利维亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%85%B8</t>
@@ -491,13 +470,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9</t>
   </si>
   <si>
-    <t>義大利</t>
+    <t>义大利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD</t>
   </si>
   <si>
-    <t>荷蘭</t>
+    <t>荷兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E5%9F%BA%E6%96%87%E5%BA%93</t>
@@ -509,9 +488,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD%E5%AE%89%E5%85%A8%E7%90%86%E4%BA%8B%E4%BC%9A%E5%90%A6%E5%86%B3%E6%9D%83</t>
   </si>
   <si>
-    <t>联合国安全理事会否决权</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%BA%9C</t>
   </si>
   <si>
@@ -533,7 +509,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%AE%89%E5%85%A8%E7%90%86%E4%BA%8B%E6%9C%83%E7%AC%AC1973%E8%99%9F%E6%B1%BA%E8%AD%B0</t>
   </si>
   <si>
-    <t>聯合國安全理事會第1973號決議</t>
+    <t>联合国安全理事会第1973号决议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%AF%94%E4%BA%9A%E5%86%85%E6%88%98</t>
@@ -557,13 +533,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B5%90%E6%A7%8B%E7%8F%BE%E5%AF%A6%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>結構現實主義</t>
+    <t>结构现实主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%8A%9B%E5%B9%B3%E8%A1%A1</t>
   </si>
   <si>
-    <t>權力平衡</t>
+    <t>权力平衡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD%E7%BB%B4%E6%8C%81%E5%92%8C%E5%B9%B3%E8%A1%8C%E5%8A%A8%E5%88%97%E8%A1%A8</t>
@@ -641,31 +617,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%A4%A7%E6%9C%83</t>
   </si>
   <si>
-    <t>聯合國大會</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E7%B6%93%E6%BF%9F%E5%8F%8A%E7%A4%BE%E6%9C%83%E7%90%86%E4%BA%8B%E6%9C%83</t>
   </si>
   <si>
-    <t>聯合國經濟及社會理事會</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E7%A7%98%E6%9B%B8%E8%99%95</t>
   </si>
   <si>
-    <t>聯合國秘書處</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%B3%95%E9%99%A2</t>
   </si>
   <si>
-    <t>國際法院</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E8%A8%97%E7%AE%A1%E7%90%86%E4%BA%8B%E6%9C%83</t>
   </si>
   <si>
-    <t>聯合國託管理事會</t>
+    <t>联合国讬管理事会</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_specialized_agencies_of_the_United_Nations</t>
@@ -677,7 +641,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E7%B3%A7%E9%A3%9F%E5%8F%8A%E8%BE%B2%E6%A5%AD%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>聯合國糧食及農業組織</t>
+    <t>联合国粮食及农业组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E8%B4%B8%E6%98%93%E4%B8%AD%E5%BF%83</t>
@@ -689,7 +653,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E4%BA%BA%E6%AC%8A%E4%BA%8B%E5%8B%99%E9%AB%98%E7%B4%9A%E5%B0%88%E5%93%A1%E8%BE%A6%E4%BA%8B%E8%99%95</t>
   </si>
   <si>
-    <t>聯合國人權事務高級專員辦事處</t>
+    <t>联合国人权事务高级专员办事处</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/United_Nations_Capital_Development_Fund</t>
@@ -701,7 +665,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%9C%8B%E9%9A%9B%E8%B2%BF%E6%98%93%E6%B3%95%E5%A7%94%E5%93%A1%E6%9C%83</t>
   </si>
   <si>
-    <t>聯合國國際貿易法委員會</t>
+    <t>联合国国际贸易法委员会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD%E8%B4%B8%E6%98%93%E5%92%8C%E5%8F%91%E5%B1%95%E4%BC%9A%E8%AE%AE</t>
@@ -713,13 +677,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E9%96%8B%E7%99%BC%E8%A8%88%E5%8A%83%E7%BD%B2</t>
   </si>
   <si>
-    <t>聯合國開發計劃署</t>
+    <t>联合国开发计划署</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E7%92%B0%E5%A2%83%E7%BD%B2</t>
   </si>
   <si>
-    <t>聯合國環境署</t>
+    <t>联合国环境署</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/UNEP_OzonAction</t>
@@ -737,31 +701,31 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E4%BA%BA%E5%8F%A3%E5%9F%BA%E9%87%91</t>
   </si>
   <si>
-    <t>聯合國人口基金</t>
+    <t>联合国人口基金</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E4%BA%BA%E5%B1%85%E7%BD%B2</t>
   </si>
   <si>
-    <t>聯合國人居署</t>
+    <t>联合国人居署</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E9%9B%A3%E6%B0%91%E7%BD%B2</t>
   </si>
   <si>
-    <t>聯合國難民署</t>
+    <t>联合国难民署</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E4%BA%BA%E6%AC%8A%E7%90%86%E4%BA%8B%E6%9C%83</t>
   </si>
   <si>
-    <t>聯合國人權理事會</t>
+    <t>联合国人权理事会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%85%92%E7%AB%A5%E5%9F%BA%E9%87%91%E6%9C%83</t>
   </si>
   <si>
-    <t>聯合國兒童基金會</t>
+    <t>联合国儿童基金会</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/United_Nations_Institute_for_Disarmament_Research</t>
@@ -785,7 +749,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>聯合國大學</t>
+    <t>联合国大学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/UNU-OP</t>
@@ -827,13 +791,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E7%B3%A7%E9%A3%9F%E8%A8%88%E5%8A%83%E7%BD%B2</t>
   </si>
   <si>
-    <t>世界糧食計劃署</t>
+    <t>世界粮食计划署</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E6%84%9B%E6%BB%8B%E7%97%85%E8%81%AF%E5%90%88%E8%A6%8F%E5%8A%83%E7%BD%B2</t>
   </si>
   <si>
-    <t>聯合國愛滋病聯合規劃署</t>
+    <t>联合国爱滋病联合规划署</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/United_Nations_Interregional_Crime_and_Justice_Research_Institute</t>
@@ -845,13 +809,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E7%A4%BE%E6%9C%83%E7%99%BC%E5%B1%95%E7%A0%94%E7%A9%B6%E6%89%80</t>
   </si>
   <si>
-    <t>聯合國社會發展研究所</t>
+    <t>联合国社会发展研究所</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%B0%91%E7%94%A8%E8%88%AA%E7%A9%BA%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>國際民用航空組織</t>
+    <t>国际民用航空组织</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/International_Fund_for_Agricultural_Development</t>
@@ -863,25 +827,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E5%8B%9E%E5%B7%A5%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>國際勞工組織</t>
+    <t>国际劳工组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%B5%B7%E4%BA%8B%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>國際海事組織</t>
+    <t>国际海事组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%BA%9C%E9%96%93%E6%B0%A3%E5%80%99%E8%AE%8A%E5%8C%96%E5%B0%88%E9%96%80%E5%A7%94%E5%93%A1%E6%9C%83</t>
   </si>
   <si>
-    <t>政府間氣候變化專門委員會</t>
+    <t>政府间气候变化专门委员会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E9%9B%BB%E4%BF%A1%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>國際電信聯盟</t>
+    <t>国际电信联盟</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/United_Nations_Development_Assistance_Framework</t>
@@ -899,7 +863,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E6%95%99%E8%82%B2%E3%80%81%E7%A7%91%E5%AD%B8%E5%8F%8A%E6%96%87%E5%8C%96%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>聯合國教育、科學及文化組織</t>
+    <t>联合国教育、科学及文化组织</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/United_Nations_Fund_for_International_Partnerships_(UNFIP)</t>
@@ -929,31 +893,31 @@
     <t>https://zh.wikipedia.org/wiki/%E8%90%AC%E5%9C%8B%E9%83%B5%E6%94%BF%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>萬國郵政聯盟</t>
+    <t>万国邮政联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E8%A1%9B%E7%94%9F%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>世界衛生組織</t>
+    <t>世界卫生组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E6%99%BA%E6%85%A7%E8%B2%A1%E7%94%A2%E6%AC%8A%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>世界智慧財產權組織</t>
+    <t>世界智慧财产权组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E6%B0%A3%E8%B1%A1%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>世界氣象組織</t>
+    <t>世界气象组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%AC%E5%9F%94%E5%AF%A8%E6%B3%95%E9%99%A2%E7%89%B9%E5%88%A5%E6%B3%95%E5%BA%AD</t>
   </si>
   <si>
-    <t>柬埔寨法院特別法庭</t>
+    <t>柬埔寨法院特别法庭</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A2%E6%97%BA%E8%BE%BE%E9%97%AE%E9%A2%98%E5%9B%BD%E9%99%85%E5%88%91%E4%BA%8B%E6%B3%95%E5%BA%AD</t>
@@ -965,13 +929,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%89%8D%E5%8D%97%E6%96%AF%E6%8B%89%E5%A4%AB%E5%95%8F%E9%A1%8C%E5%9C%8B%E9%9A%9B%E5%88%91%E4%BA%8B%E6%B3%95%E5%BA%AD</t>
   </si>
   <si>
-    <t>前南斯拉夫問題國際刑事法庭</t>
+    <t>前南斯拉夫问题国际刑事法庭</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8D%85%E5%AD%90%E5%B1%B1%E7%89%B9%E5%88%A5%E6%B3%95%E5%BA%AD</t>
   </si>
   <si>
-    <t>獅子山特別法庭</t>
+    <t>狮子山特别法庭</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Special_Panels_of_the_Dili_District_Court</t>
@@ -1031,7 +995,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E4%BA%BA%E9%81%93%E4%BA%8B%E5%8B%99%E5%8D%94%E8%AA%BF%E5%BB%B3</t>
   </si>
   <si>
-    <t>聯合國人道事務協調廳</t>
+    <t>联合国人道事务协调厅</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/United_Nations_Office_of_Disarmament_Affairs</t>
@@ -1043,7 +1007,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E6%AF%92%E5%93%81%E5%92%8C%E7%8A%AF%E7%BD%AA%E5%95%8F%E9%A1%8C%E8%BE%A6%E5%85%AC%E5%AE%A4</t>
   </si>
   <si>
-    <t>聯合國毒品和犯罪問題辦公室</t>
+    <t>联合国毒品和犯罪问题办公室</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/United_Nations_Office_of_the_High_Representative_for_the_Least_Developed_Countries,_Landlocked_Developing_Countries_and_Small_Island_Developing_States</t>
@@ -1067,7 +1031,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E7%B8%BD%E9%83%A8%E5%A4%A7%E6%A8%93</t>
   </si>
   <si>
-    <t>聯合國總部大樓</t>
+    <t>联合国总部大楼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD%E6%97%A5%E5%86%85%E7%93%A6%E5%8A%9E%E4%BA%8B%E5%A4%84</t>
@@ -1097,7 +1061,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%A5%88%E6%B4%9B%E6%AF%94%E8%BE%A6%E4%BA%8B%E8%99%95</t>
   </si>
   <si>
-    <t>聯合國奈洛比辦事處</t>
+    <t>联合国奈洛比办事处</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_United_Nations_organizations_by_location</t>
@@ -1109,19 +1073,16 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E6%9C%83%E5%93%A1%E5%9C%8B%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>聯合國會員國列表</t>
+    <t>联合国会员国列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%8D%80%E5%9F%9F%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>聯合國區域集團</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%A4%A7%E6%9C%83%E8%A7%80%E5%AF%9F%E5%93%A1%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>聯合國大會觀察員列表</t>
+    <t>联合国大会观察员列表</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/European_Union_and_the_United_Nations</t>
@@ -1139,15 +1100,12 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E4%BA%BA%E6%AC%8A%E5%AE%A3%E8%A8%80</t>
   </si>
   <si>
-    <t>世界人權宣言</t>
+    <t>世界人权宣言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>國際聯盟</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%9B%E8%AD%A6%E5%AF%9F</t>
   </si>
   <si>
@@ -1157,13 +1115,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%85%B1%E5%90%8C%E5%AE%A3%E8%A8%80</t>
   </si>
   <si>
-    <t>聯合國共同宣言</t>
+    <t>联合国共同宣言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E6%8C%81%E5%92%8C%E5%B9%B3</t>
   </si>
   <si>
-    <t>維持和平</t>
+    <t>维持和平</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/History_of_United_Nations_peacekeeping</t>
@@ -1187,13 +1145,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E6%B1%BA%E8%AD%B0</t>
   </si>
   <si>
-    <t>聯合國決議</t>
+    <t>联合国决议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%A4%A7%E6%9C%832758%E8%99%9F%E6%B1%BA%E8%AD%B0</t>
   </si>
   <si>
-    <t>聯合國大會2758號決議</t>
+    <t>联合国大会2758号决议</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_resolutions_at_the_sixty-sixth_session_of_the_United_Nations_General_Assembly</t>
@@ -1211,9 +1169,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%AE%89%E5%85%A8%E7%90%86%E4%BA%8B%E6%9C%83%E6%B1%BA%E8%AD%B0</t>
   </si>
   <si>
-    <t>聯合國安全理事會決議</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/List_of_United_Nations_Security_Council_resolutions_concerning_Cyprus</t>
   </si>
   <si>
@@ -1253,7 +1208,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%AE%89%E5%85%A8%E7%90%86%E4%BA%8B%E6%9C%83%E6%9C%9D%E9%AE%AE%E7%9B%B8%E9%97%9C%E6%B1%BA%E8%AD%B0%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>聯合國安全理事會朝鮮相關決議列表</t>
+    <t>联合国安全理事会朝鲜相关决议列表</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_the_UN_resolutions_concerning_Palestine</t>
@@ -1325,9 +1280,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E6%86%B2%E7%AB%A0</t>
   </si>
   <si>
-    <t>聯合國憲章</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/United_Nations_Global_Compact</t>
   </si>
   <si>
@@ -1349,7 +1301,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E9%80%9A%E8%A1%8C%E8%AD%89</t>
   </si>
   <si>
-    <t>聯合國通行證</t>
+    <t>联合国通行证</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Official_languages_of_the_United_Nations</t>
@@ -1367,7 +1319,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E5%88%97%E6%95%A6%E6%A3%AE%E6%9E%97%E9%AB%94%E7%B3%BB</t>
   </si>
   <si>
-    <t>布列敦森林體系</t>
+    <t>布列敦森林体系</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Delivering_as_One</t>
@@ -1385,7 +1337,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%83%E7%A6%A7%E9%AB%98%E5%B3%B0%E6%9C%83</t>
   </si>
   <si>
-    <t>千禧高峰會</t>
+    <t>千禧高峰会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%83%E5%B9%B4%E5%8F%91%E5%B1%95%E7%9B%AE%E6%A0%87</t>
@@ -1397,7 +1349,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E6%94%B9%E9%9D%A9</t>
   </si>
   <si>
-    <t>聯合國改革</t>
+    <t>联合国改革</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD%E8%AE%AE%E4%BC%9A%E5%A4%A7%E4%BC%9A</t>
@@ -1409,7 +1361,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9B%9B%E5%9C%8B%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>四國聯盟</t>
+    <t>四国联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD%E7%BA%AA%E5%BF%B5%E6%B4%BB%E5%8A%A8</t>
@@ -1421,7 +1373,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E6%97%A5</t>
   </si>
   <si>
-    <t>聯合國日</t>
+    <t>联合国日</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/United_Nations_television_film_series</t>
@@ -1433,7 +1385,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E7%9C%BE%E6%96%87%E5%8C%96%E4%B8%AD%E7%9A%84%E8%81%AF%E5%90%88%E5%9C%8B</t>
   </si>
   <si>
-    <t>大眾文化中的聯合國</t>
+    <t>大众文化中的联合国</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Comprehensive_Nuclear-Test-Ban_Treaty_Organization</t>
@@ -1445,13 +1397,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E5%8E%9F%E5%AD%90%E8%83%BD%E6%A9%9F%E6%A7%8B</t>
   </si>
   <si>
-    <t>國際原子能機構</t>
+    <t>国际原子能机构</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E5%88%91%E4%BA%8B%E6%B3%95%E9%99%A2</t>
   </si>
   <si>
-    <t>國際刑事法院</t>
+    <t>国际刑事法院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E6%B5%B7%E5%BA%95%E7%AE%A1%E7%90%86%E5%B1%80</t>
@@ -1469,13 +1421,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A6%81%E6%AD%A2%E5%8C%96%E5%AD%B8%E6%AD%A6%E5%99%A8%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>禁止化學武器組織</t>
+    <t>禁止化学武器组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E8%B2%BF%E6%98%93%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>世界貿易組織</t>
+    <t>世界贸易组织</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/United_Nations_Military_Observer</t>
@@ -1511,9 +1463,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD%E5%AE%89%E5%85%A8%E7%90%86%E4%BA%8B%E4%BC%9A%E5%B8%B8%E4%BB%BB%E7%90%86%E4%BA%8B%E5%9B%BD</t>
   </si>
   <si>
-    <t>联合国安全理事会常任理事国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%85%E5%B0%94%E5%A1%94%E4%BC%9A%E8%AE%AE</t>
   </si>
   <si>
@@ -1523,9 +1472,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD%E5%A4%A7%E4%BC%9A2758%E5%8F%B7%E5%86%B3%E8%AE%AE</t>
   </si>
   <si>
-    <t>联合国大会2758号决议</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E8%81%94%E8%A7%A3%E4%BD%93</t>
   </si>
   <si>
@@ -1535,13 +1481,10 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD%E6%94%B9%E9%9D%A9</t>
   </si>
   <si>
-    <t>联合国改革</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%AC%8A</t>
   </si>
   <si>
-    <t>人權</t>
+    <t>人权</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_human_rights_organisations</t>
@@ -1589,13 +1532,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E4%BA%BA%E6%AC%8A%E5%A7%94%E5%93%A1%E6%9C%83</t>
   </si>
   <si>
-    <t>聯合國人權委員會</t>
+    <t>联合国人权委员会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%AE%89%E7%90%86%E6%9C%83</t>
   </si>
   <si>
-    <t>聯合國安理會</t>
+    <t>联合国安理会</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/African_Commission_on_Human_and_Peoples%27_Rights</t>
@@ -1607,7 +1550,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B4%B2%E4%BA%BA%E6%AC%8A%E8%88%87%E6%B0%91%E6%97%8F%E6%AC%8A%E5%88%A9%E6%B3%95%E9%99%A2</t>
   </si>
   <si>
-    <t>非洲人權與民族權利法院</t>
+    <t>非洲人权与民族权利法院</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/African_Court_of_Justice</t>
@@ -1643,31 +1586,31 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E7%9B%9F</t>
   </si>
   <si>
-    <t>歐盟</t>
+    <t>欧盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E5%A7%94%E5%93%A1%E6%9C%83</t>
   </si>
   <si>
-    <t>歐洲委員會</t>
+    <t>欧洲委员会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2%E5%9C%8B%E5%AE%B6%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>美洲國家組織</t>
+    <t>美洲国家组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E6%95%99%E7%A7%91%E6%96%87%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>聯合國教科文組織</t>
+    <t>联合国教科文组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%A9%A6%E5%A5%B3%E5%9C%B0%E4%BD%8D%E5%A7%94%E5%93%A1%E6%9C%83</t>
   </si>
   <si>
-    <t>聯合國婦女地位委員會</t>
+    <t>联合国妇女地位委员会</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/United_Nations_Development_Fund_for_Women</t>
@@ -1679,9 +1622,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD%E5%BC%80%E5%8F%91%E8%AE%A1%E5%88%92%E7%BD%B2</t>
   </si>
   <si>
-    <t>联合国开发计划署</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/NGO</t>
   </si>
   <si>
@@ -1691,19 +1631,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E7%89%B9%E8%B5%A6%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>國際特赦組織</t>
+    <t>国际特赦组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E4%BA%BA%E6%AC%8A%E8%81%AF%E7%9B%9F_(%E5%B7%B4%E9%BB%8E)</t>
   </si>
   <si>
-    <t>國際人權聯盟 (巴黎)</t>
+    <t>国际人权联盟 (巴黎)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%AC%8A%E8%A7%80%E5%AF%9F</t>
   </si>
   <si>
-    <t>人權觀察</t>
+    <t>人权观察</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E7%BA%A2%E5%8D%81%E5%AD%97%E4%B8%8E%E7%BA%A2%E6%96%B0%E6%9C%88%E8%BF%90%E5%8A%A8</t>
@@ -1721,7 +1661,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -1739,7 +1679,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
+    <t>国际标准名称识别码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -1757,7 +1697,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>大學文檔系統</t>
+    <t>大学文档系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -1769,13 +1709,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E6%B4%B2%E5%9C%8B%E5%AE%B6%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>澳洲國家圖書館</t>
+    <t>澳洲国家图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
@@ -3306,7 +3246,7 @@
         <v>81</v>
       </c>
       <c r="F41" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="G41" t="n">
         <v>3</v>
@@ -3332,10 +3272,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F42" t="s">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="G42" t="n">
         <v>3</v>
@@ -3361,10 +3301,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F43" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="G43" t="n">
         <v>5</v>
@@ -3419,10 +3359,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F45" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -3477,10 +3417,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F47" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -3535,10 +3475,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F49" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -3564,10 +3504,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F50" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -3593,10 +3533,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F51" t="s">
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="G51" t="n">
         <v>6</v>
@@ -3622,10 +3562,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F52" t="s">
-        <v>98</v>
+        <v>54</v>
       </c>
       <c r="G52" t="n">
         <v>3</v>
@@ -3651,10 +3591,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="F53" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -3680,10 +3620,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="F54" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -3709,10 +3649,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F55" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -3738,10 +3678,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F56" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -3767,10 +3707,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F57" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -3796,10 +3736,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F58" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -3825,10 +3765,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="F59" t="s">
-        <v>112</v>
+        <v>36</v>
       </c>
       <c r="G59" t="n">
         <v>5</v>
@@ -3854,10 +3794,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F60" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -3883,10 +3823,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="F61" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -3912,10 +3852,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F62" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -3941,10 +3881,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="F63" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -3999,10 +3939,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="F65" t="s">
-        <v>122</v>
+        <v>48</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -4057,10 +3997,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="F67" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -4086,10 +4026,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="F68" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="G68" t="n">
         <v>3</v>
@@ -4115,10 +4055,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="F69" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -4144,10 +4084,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="F70" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -4173,10 +4113,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="F71" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -4202,10 +4142,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="F72" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -4231,10 +4171,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="F73" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -4260,10 +4200,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="F74" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -4289,10 +4229,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="F75" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G75" t="n">
         <v>4</v>
@@ -4318,10 +4258,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F76" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="G76" t="n">
         <v>2</v>
@@ -4347,10 +4287,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="F77" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="G77" t="n">
         <v>2</v>
@@ -4376,10 +4316,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="F78" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="G78" t="n">
         <v>2</v>
@@ -4405,10 +4345,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="F79" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="G79" t="n">
         <v>2</v>
@@ -4434,10 +4374,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="F80" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="G80" t="n">
         <v>2</v>
@@ -4463,10 +4403,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="F81" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="G81" t="n">
         <v>2</v>
@@ -4492,10 +4432,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="F82" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="G82" t="n">
         <v>2</v>
@@ -4521,10 +4461,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="F83" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="G83" t="n">
         <v>2</v>
@@ -4550,10 +4490,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="F84" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="G84" t="n">
         <v>2</v>
@@ -4579,10 +4519,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="F85" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -4608,10 +4548,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="F86" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -4637,10 +4577,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="F87" t="s">
-        <v>164</v>
+        <v>32</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -4666,10 +4606,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="F88" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="G88" t="n">
         <v>9</v>
@@ -4724,10 +4664,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="F90" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -4753,10 +4693,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="F91" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -4782,10 +4722,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="F92" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -4811,10 +4751,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="F93" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -4840,10 +4780,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="F94" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="G94" t="n">
         <v>2</v>
@@ -4869,10 +4809,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="F95" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -4898,10 +4838,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="F96" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -4927,10 +4867,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="F97" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -4956,10 +4896,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="F98" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4985,10 +4925,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="F99" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -5014,10 +4954,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="F100" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -5043,10 +4983,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="F101" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -5072,10 +5012,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="F102" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -5101,10 +5041,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="F103" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="G103" t="n">
         <v>6</v>
@@ -5130,10 +5070,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="F104" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -5159,10 +5099,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="F105" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -5188,10 +5128,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="F106" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="G106" t="n">
         <v>2</v>
@@ -5217,10 +5157,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="F107" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -5246,10 +5186,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="F108" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="G108" t="n">
         <v>2</v>
@@ -5275,10 +5215,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="F109" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -5333,10 +5273,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="F111" t="s">
-        <v>208</v>
+        <v>38</v>
       </c>
       <c r="G111" t="n">
         <v>6</v>
@@ -5362,10 +5302,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="F112" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="G112" t="n">
         <v>6</v>
@@ -5391,10 +5331,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="F113" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="G113" t="n">
         <v>4</v>
@@ -5449,10 +5389,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="F115" t="s">
-        <v>210</v>
+        <v>178</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -5478,10 +5418,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="F116" t="s">
-        <v>212</v>
+        <v>162</v>
       </c>
       <c r="G116" t="n">
         <v>2</v>
@@ -5507,10 +5447,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="F117" t="s">
-        <v>214</v>
+        <v>40</v>
       </c>
       <c r="G117" t="n">
         <v>2</v>
@@ -5536,10 +5476,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="F118" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -5565,10 +5505,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="F119" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -5594,10 +5534,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="F120" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="G120" t="n">
         <v>2</v>
@@ -5623,10 +5563,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="F121" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -5652,10 +5592,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="F122" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -5681,10 +5621,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="F123" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -5710,10 +5650,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="F124" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -5739,10 +5679,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="F125" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -5768,10 +5708,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="F126" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -5797,10 +5737,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="F127" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5826,10 +5766,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="F128" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5855,10 +5795,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="F129" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5884,10 +5824,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="F130" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="G130" t="n">
         <v>2</v>
@@ -5913,10 +5853,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="F131" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="G131" t="n">
         <v>2</v>
@@ -5942,10 +5882,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="F132" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="G132" t="n">
         <v>2</v>
@@ -5971,10 +5911,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="F133" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="G133" t="n">
         <v>2</v>
@@ -6000,10 +5940,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="F134" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="G134" t="n">
         <v>2</v>
@@ -6029,10 +5969,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="F135" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -6058,10 +5998,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="F136" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -6087,10 +6027,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="F137" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="G137" t="n">
         <v>2</v>
@@ -6116,10 +6056,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="F138" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -6145,10 +6085,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="F139" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="G139" t="n">
         <v>2</v>
@@ -6174,10 +6114,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="F140" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="G140" t="n">
         <v>2</v>
@@ -6203,10 +6143,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="F141" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -6232,10 +6172,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="F142" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="G142" t="n">
         <v>2</v>
@@ -6261,10 +6201,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="F143" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -6290,10 +6230,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="F144" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -6319,10 +6259,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="F145" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -6348,10 +6288,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="F146" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="G146" t="n">
         <v>2</v>
@@ -6377,10 +6317,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="F147" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -6406,10 +6346,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="F148" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -6435,10 +6375,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="F149" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -6464,10 +6404,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="F150" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -6493,10 +6433,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="F151" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="G151" t="n">
         <v>2</v>
@@ -6522,10 +6462,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="F152" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -6551,10 +6491,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="F153" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -6580,10 +6520,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="F154" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6609,10 +6549,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="F155" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -6638,10 +6578,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="F156" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6667,10 +6607,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="F157" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6696,10 +6636,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="F158" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6725,10 +6665,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="F159" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6754,10 +6694,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="F160" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6783,10 +6723,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="F161" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6812,10 +6752,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="F162" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6841,10 +6781,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="F163" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="G163" t="n">
         <v>2</v>
@@ -6870,10 +6810,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="F164" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6899,10 +6839,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="F165" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6928,10 +6868,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="F166" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6957,10 +6897,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="F167" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6986,10 +6926,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="F168" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -7015,10 +6955,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="F169" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -7044,10 +6984,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="F170" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -7073,10 +7013,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="F171" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -7102,10 +7042,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="F172" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="G172" t="n">
         <v>3</v>
@@ -7131,10 +7071,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="F173" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -7160,10 +7100,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="F174" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -7189,10 +7129,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="F175" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -7218,10 +7158,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="F176" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -7247,10 +7187,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="F177" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -7276,10 +7216,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="F178" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -7305,10 +7245,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="F179" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="G179" t="n">
         <v>2</v>
@@ -7334,10 +7274,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="F180" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -7363,10 +7303,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="F181" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -7392,10 +7332,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="F182" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -7421,10 +7361,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="F183" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -7450,10 +7390,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="F184" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -7479,10 +7419,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="F185" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -7508,10 +7448,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="F186" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -7537,10 +7477,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="F187" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7566,10 +7506,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="F188" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7595,10 +7535,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="F189" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7624,10 +7564,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="F190" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7653,10 +7593,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="F191" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7682,10 +7622,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="F192" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7711,10 +7651,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="F193" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7740,10 +7680,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="F194" t="s">
-        <v>366</v>
+        <v>80</v>
       </c>
       <c r="G194" t="n">
         <v>4</v>
@@ -7769,10 +7709,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="F195" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7827,10 +7767,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="F197" t="s">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="G197" t="n">
         <v>2</v>
@@ -7856,10 +7796,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="F198" t="s">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -7885,10 +7825,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>371</v>
+        <v>358</v>
       </c>
       <c r="F199" t="s">
-        <v>372</v>
+        <v>359</v>
       </c>
       <c r="G199" t="n">
         <v>2</v>
@@ -7914,10 +7854,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>373</v>
+        <v>360</v>
       </c>
       <c r="F200" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -7943,10 +7883,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>375</v>
+        <v>362</v>
       </c>
       <c r="F201" t="s">
-        <v>376</v>
+        <v>74</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -7972,10 +7912,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>377</v>
+        <v>363</v>
       </c>
       <c r="F202" t="s">
-        <v>378</v>
+        <v>364</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -8001,10 +7941,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="F203" t="s">
-        <v>380</v>
+        <v>366</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -8030,10 +7970,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="F204" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -8059,10 +7999,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>381</v>
+        <v>367</v>
       </c>
       <c r="F205" t="s">
-        <v>382</v>
+        <v>368</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -8088,10 +8028,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="F206" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="G206" t="n">
         <v>2</v>
@@ -8117,10 +8057,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>385</v>
+        <v>371</v>
       </c>
       <c r="F207" t="s">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -8146,10 +8086,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>387</v>
+        <v>373</v>
       </c>
       <c r="F208" t="s">
-        <v>388</v>
+        <v>374</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -8175,10 +8115,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="F209" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="G209" t="n">
         <v>2</v>
@@ -8204,10 +8144,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="F210" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -8233,10 +8173,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>393</v>
+        <v>379</v>
       </c>
       <c r="F211" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -8262,10 +8202,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="F212" t="s">
-        <v>396</v>
+        <v>382</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -8291,10 +8231,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>397</v>
+        <v>383</v>
       </c>
       <c r="F213" t="s">
-        <v>398</v>
+        <v>168</v>
       </c>
       <c r="G213" t="n">
         <v>7</v>
@@ -8320,10 +8260,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>399</v>
+        <v>384</v>
       </c>
       <c r="F214" t="s">
-        <v>400</v>
+        <v>385</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -8349,10 +8289,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>401</v>
+        <v>386</v>
       </c>
       <c r="F215" t="s">
-        <v>402</v>
+        <v>387</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -8378,10 +8318,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>403</v>
+        <v>388</v>
       </c>
       <c r="F216" t="s">
-        <v>404</v>
+        <v>389</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -8407,10 +8347,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>405</v>
+        <v>390</v>
       </c>
       <c r="F217" t="s">
-        <v>406</v>
+        <v>391</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8436,10 +8376,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>407</v>
+        <v>392</v>
       </c>
       <c r="F218" t="s">
-        <v>408</v>
+        <v>393</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -8465,10 +8405,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>409</v>
+        <v>394</v>
       </c>
       <c r="F219" t="s">
-        <v>410</v>
+        <v>395</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8494,10 +8434,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>411</v>
+        <v>396</v>
       </c>
       <c r="F220" t="s">
-        <v>412</v>
+        <v>397</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -8523,10 +8463,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>413</v>
+        <v>398</v>
       </c>
       <c r="F221" t="s">
-        <v>414</v>
+        <v>399</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8552,10 +8492,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>415</v>
+        <v>400</v>
       </c>
       <c r="F222" t="s">
-        <v>416</v>
+        <v>401</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -8581,10 +8521,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>417</v>
+        <v>402</v>
       </c>
       <c r="F223" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -8610,10 +8550,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="F224" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
       <c r="G224" t="n">
         <v>2</v>
@@ -8639,10 +8579,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>421</v>
+        <v>406</v>
       </c>
       <c r="F225" t="s">
-        <v>422</v>
+        <v>407</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -8668,10 +8608,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>423</v>
+        <v>408</v>
       </c>
       <c r="F226" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -8697,10 +8637,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>425</v>
+        <v>410</v>
       </c>
       <c r="F227" t="s">
-        <v>426</v>
+        <v>411</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -8726,10 +8666,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>427</v>
+        <v>412</v>
       </c>
       <c r="F228" t="s">
-        <v>428</v>
+        <v>413</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -8755,10 +8695,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>429</v>
+        <v>414</v>
       </c>
       <c r="F229" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -8784,10 +8724,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="F230" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -8813,10 +8753,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>433</v>
+        <v>418</v>
       </c>
       <c r="F231" t="s">
-        <v>434</v>
+        <v>419</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -8842,10 +8782,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>435</v>
+        <v>420</v>
       </c>
       <c r="F232" t="s">
-        <v>436</v>
+        <v>28</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -8871,10 +8811,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>437</v>
+        <v>421</v>
       </c>
       <c r="F233" t="s">
-        <v>438</v>
+        <v>422</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -8900,10 +8840,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>439</v>
+        <v>423</v>
       </c>
       <c r="F234" t="s">
-        <v>440</v>
+        <v>424</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -8929,10 +8869,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>441</v>
+        <v>425</v>
       </c>
       <c r="F235" t="s">
-        <v>442</v>
+        <v>426</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -8958,10 +8898,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>443</v>
+        <v>427</v>
       </c>
       <c r="F236" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -8987,10 +8927,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>445</v>
+        <v>429</v>
       </c>
       <c r="F237" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -9016,10 +8956,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
       <c r="F238" t="s">
-        <v>448</v>
+        <v>432</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -9045,10 +8985,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>449</v>
+        <v>433</v>
       </c>
       <c r="F239" t="s">
-        <v>450</v>
+        <v>434</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -9074,10 +9014,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>451</v>
+        <v>435</v>
       </c>
       <c r="F240" t="s">
-        <v>452</v>
+        <v>436</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -9103,10 +9043,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>453</v>
+        <v>437</v>
       </c>
       <c r="F241" t="s">
-        <v>454</v>
+        <v>438</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -9132,10 +9072,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>455</v>
+        <v>439</v>
       </c>
       <c r="F242" t="s">
-        <v>456</v>
+        <v>440</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -9161,10 +9101,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>457</v>
+        <v>441</v>
       </c>
       <c r="F243" t="s">
-        <v>458</v>
+        <v>442</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -9190,10 +9130,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>459</v>
+        <v>443</v>
       </c>
       <c r="F244" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -9219,10 +9159,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>461</v>
+        <v>445</v>
       </c>
       <c r="F245" t="s">
-        <v>462</v>
+        <v>446</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -9248,10 +9188,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>463</v>
+        <v>447</v>
       </c>
       <c r="F246" t="s">
-        <v>464</v>
+        <v>448</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -9277,10 +9217,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>465</v>
+        <v>449</v>
       </c>
       <c r="F247" t="s">
-        <v>466</v>
+        <v>450</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -9306,10 +9246,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>467</v>
+        <v>451</v>
       </c>
       <c r="F248" t="s">
-        <v>468</v>
+        <v>452</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -9335,10 +9275,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>469</v>
+        <v>453</v>
       </c>
       <c r="F249" t="s">
-        <v>470</v>
+        <v>454</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -9364,10 +9304,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>471</v>
+        <v>455</v>
       </c>
       <c r="F250" t="s">
-        <v>472</v>
+        <v>456</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -9393,10 +9333,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>473</v>
+        <v>457</v>
       </c>
       <c r="F251" t="s">
-        <v>474</v>
+        <v>458</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -9422,10 +9362,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>475</v>
+        <v>459</v>
       </c>
       <c r="F252" t="s">
-        <v>476</v>
+        <v>460</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -9451,10 +9391,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>477</v>
+        <v>461</v>
       </c>
       <c r="F253" t="s">
-        <v>478</v>
+        <v>462</v>
       </c>
       <c r="G253" t="n">
         <v>2</v>
@@ -9480,10 +9420,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>479</v>
+        <v>463</v>
       </c>
       <c r="F254" t="s">
-        <v>480</v>
+        <v>464</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -9509,10 +9449,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>481</v>
+        <v>465</v>
       </c>
       <c r="F255" t="s">
-        <v>482</v>
+        <v>466</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -9538,10 +9478,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>483</v>
+        <v>467</v>
       </c>
       <c r="F256" t="s">
-        <v>484</v>
+        <v>468</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -9567,10 +9507,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>485</v>
+        <v>469</v>
       </c>
       <c r="F257" t="s">
-        <v>486</v>
+        <v>470</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -9596,10 +9536,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="F258" t="s">
-        <v>164</v>
+        <v>32</v>
       </c>
       <c r="G258" t="n">
         <v>7</v>
@@ -9625,10 +9565,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="F259" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="G259" t="n">
         <v>22</v>
@@ -9654,10 +9594,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>487</v>
+        <v>471</v>
       </c>
       <c r="F260" t="s">
-        <v>488</v>
+        <v>472</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -9683,10 +9623,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>489</v>
+        <v>473</v>
       </c>
       <c r="F261" t="s">
-        <v>490</v>
+        <v>474</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -9712,10 +9652,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>491</v>
+        <v>475</v>
       </c>
       <c r="F262" t="s">
-        <v>492</v>
+        <v>476</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -9741,10 +9681,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>493</v>
+        <v>477</v>
       </c>
       <c r="F263" t="s">
-        <v>494</v>
+        <v>478</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -9770,10 +9710,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>495</v>
+        <v>479</v>
       </c>
       <c r="F264" t="s">
-        <v>496</v>
+        <v>480</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -9799,10 +9739,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>497</v>
+        <v>481</v>
       </c>
       <c r="F265" t="s">
-        <v>498</v>
+        <v>76</v>
       </c>
       <c r="G265" t="n">
         <v>22</v>
@@ -9828,10 +9768,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>499</v>
+        <v>482</v>
       </c>
       <c r="F266" t="s">
-        <v>500</v>
+        <v>483</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -9857,10 +9797,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>501</v>
+        <v>484</v>
       </c>
       <c r="F267" t="s">
-        <v>502</v>
+        <v>378</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -9915,10 +9855,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>503</v>
+        <v>485</v>
       </c>
       <c r="F269" t="s">
-        <v>504</v>
+        <v>486</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -9944,10 +9884,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>463</v>
+        <v>447</v>
       </c>
       <c r="F270" t="s">
-        <v>464</v>
+        <v>448</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -9973,10 +9913,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>505</v>
+        <v>487</v>
       </c>
       <c r="F271" t="s">
-        <v>506</v>
+        <v>444</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -10034,7 +9974,7 @@
         <v>81</v>
       </c>
       <c r="F273" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="G273" t="n">
         <v>5</v>
@@ -10089,10 +10029,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>507</v>
+        <v>488</v>
       </c>
       <c r="F275" t="s">
-        <v>508</v>
+        <v>489</v>
       </c>
       <c r="G275" t="n">
         <v>16</v>
@@ -10118,10 +10058,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>509</v>
+        <v>490</v>
       </c>
       <c r="F276" t="s">
-        <v>510</v>
+        <v>491</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -10147,10 +10087,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>511</v>
+        <v>492</v>
       </c>
       <c r="F277" t="s">
-        <v>512</v>
+        <v>493</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -10176,10 +10116,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>513</v>
+        <v>494</v>
       </c>
       <c r="F278" t="s">
-        <v>514</v>
+        <v>495</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -10205,10 +10145,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>515</v>
+        <v>496</v>
       </c>
       <c r="F279" t="s">
-        <v>516</v>
+        <v>497</v>
       </c>
       <c r="G279" t="n">
         <v>3</v>
@@ -10234,10 +10174,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>517</v>
+        <v>498</v>
       </c>
       <c r="F280" t="s">
-        <v>518</v>
+        <v>499</v>
       </c>
       <c r="G280" t="n">
         <v>2</v>
@@ -10263,10 +10203,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>519</v>
+        <v>500</v>
       </c>
       <c r="F281" t="s">
-        <v>520</v>
+        <v>501</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -10292,10 +10232,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>521</v>
+        <v>502</v>
       </c>
       <c r="F282" t="s">
-        <v>522</v>
+        <v>503</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -10321,10 +10261,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>523</v>
+        <v>504</v>
       </c>
       <c r="F283" t="s">
-        <v>524</v>
+        <v>505</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -10350,10 +10290,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>525</v>
+        <v>506</v>
       </c>
       <c r="F284" t="s">
-        <v>526</v>
+        <v>507</v>
       </c>
       <c r="G284" t="n">
         <v>2</v>
@@ -10379,10 +10319,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>527</v>
+        <v>508</v>
       </c>
       <c r="F285" t="s">
-        <v>528</v>
+        <v>509</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -10408,10 +10348,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>529</v>
+        <v>510</v>
       </c>
       <c r="F286" t="s">
-        <v>530</v>
+        <v>511</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -10437,10 +10377,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>531</v>
+        <v>512</v>
       </c>
       <c r="F287" t="s">
-        <v>532</v>
+        <v>513</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -10466,10 +10406,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>533</v>
+        <v>514</v>
       </c>
       <c r="F288" t="s">
-        <v>534</v>
+        <v>515</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -10495,10 +10435,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>535</v>
+        <v>516</v>
       </c>
       <c r="F289" t="s">
-        <v>536</v>
+        <v>517</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -10524,10 +10464,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>537</v>
+        <v>518</v>
       </c>
       <c r="F290" t="s">
-        <v>538</v>
+        <v>519</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -10553,10 +10493,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>539</v>
+        <v>520</v>
       </c>
       <c r="F291" t="s">
-        <v>540</v>
+        <v>521</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -10582,10 +10522,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>541</v>
+        <v>522</v>
       </c>
       <c r="F292" t="s">
-        <v>542</v>
+        <v>523</v>
       </c>
       <c r="G292" t="n">
         <v>2</v>
@@ -10611,10 +10551,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
       <c r="F293" t="s">
-        <v>544</v>
+        <v>525</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -10640,10 +10580,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>545</v>
+        <v>526</v>
       </c>
       <c r="F294" t="s">
-        <v>546</v>
+        <v>527</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -10669,10 +10609,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>547</v>
+        <v>528</v>
       </c>
       <c r="F295" t="s">
-        <v>548</v>
+        <v>529</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -10698,10 +10638,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>549</v>
+        <v>530</v>
       </c>
       <c r="F296" t="s">
-        <v>550</v>
+        <v>531</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -10727,10 +10667,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>551</v>
+        <v>532</v>
       </c>
       <c r="F297" t="s">
-        <v>552</v>
+        <v>533</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -10756,10 +10696,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>553</v>
+        <v>534</v>
       </c>
       <c r="F298" t="s">
-        <v>554</v>
+        <v>220</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -10785,10 +10725,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>555</v>
+        <v>535</v>
       </c>
       <c r="F299" t="s">
-        <v>556</v>
+        <v>536</v>
       </c>
       <c r="G299" t="n">
         <v>3</v>
@@ -10814,10 +10754,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>557</v>
+        <v>537</v>
       </c>
       <c r="F300" t="s">
-        <v>558</v>
+        <v>538</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -10843,10 +10783,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>559</v>
+        <v>539</v>
       </c>
       <c r="F301" t="s">
-        <v>560</v>
+        <v>540</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -10872,10 +10812,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>561</v>
+        <v>541</v>
       </c>
       <c r="F302" t="s">
-        <v>562</v>
+        <v>542</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -10901,10 +10841,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>563</v>
+        <v>543</v>
       </c>
       <c r="F303" t="s">
-        <v>564</v>
+        <v>544</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -10930,10 +10870,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>565</v>
+        <v>545</v>
       </c>
       <c r="F304" t="s">
-        <v>566</v>
+        <v>546</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -10959,10 +10899,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>567</v>
+        <v>547</v>
       </c>
       <c r="F305" t="s">
-        <v>568</v>
+        <v>548</v>
       </c>
       <c r="G305" t="n">
         <v>3</v>
@@ -10988,10 +10928,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>569</v>
+        <v>549</v>
       </c>
       <c r="F306" t="s">
-        <v>570</v>
+        <v>550</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -11017,10 +10957,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>571</v>
+        <v>551</v>
       </c>
       <c r="F307" t="s">
-        <v>572</v>
+        <v>552</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -11046,10 +10986,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>573</v>
+        <v>553</v>
       </c>
       <c r="F308" t="s">
-        <v>574</v>
+        <v>554</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -11075,10 +11015,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>575</v>
+        <v>555</v>
       </c>
       <c r="F309" t="s">
-        <v>576</v>
+        <v>556</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -11104,10 +11044,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>577</v>
+        <v>557</v>
       </c>
       <c r="F310" t="s">
-        <v>578</v>
+        <v>558</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -11133,10 +11073,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>579</v>
+        <v>559</v>
       </c>
       <c r="F311" t="s">
-        <v>580</v>
+        <v>560</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -11162,10 +11102,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>581</v>
+        <v>561</v>
       </c>
       <c r="F312" t="s">
-        <v>582</v>
+        <v>562</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -11191,10 +11131,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>583</v>
+        <v>563</v>
       </c>
       <c r="F313" t="s">
-        <v>584</v>
+        <v>564</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -11220,10 +11160,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>585</v>
+        <v>565</v>
       </c>
       <c r="F314" t="s">
-        <v>586</v>
+        <v>566</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>

--- a/xlsx/联合国安全理事会_intext.xlsx
+++ b/xlsx/联合国安全理事会_intext.xlsx
@@ -29,7 +29,7 @@
     <t>法語</t>
   </si>
   <si>
-    <t>政策_政策_美國_联合国安全理事会</t>
+    <t>体育运动_体育运动_南非_联合国安全理事会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%AA%9E</t>
